--- a/debentures.xlsx
+++ b/debentures.xlsx
@@ -7,20 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="30ago2023" sheetId="1" r:id="rId1"/>
-    <sheet name="29ago2023" sheetId="2" r:id="rId2"/>
-    <sheet name="28ago2023" sheetId="3" r:id="rId3"/>
-    <sheet name="25ago2023" sheetId="4" r:id="rId4"/>
-    <sheet name="24ago2023" sheetId="5" r:id="rId5"/>
-    <sheet name="23ago2023" sheetId="6" r:id="rId6"/>
-    <sheet name="22ago2023" sheetId="7" r:id="rId7"/>
+    <sheet name="31ago2023" sheetId="1" r:id="rId1"/>
+    <sheet name="30ago2023" sheetId="2" r:id="rId2"/>
+    <sheet name="29ago2023" sheetId="3" r:id="rId3"/>
+    <sheet name="28ago2023" sheetId="4" r:id="rId4"/>
+    <sheet name="25ago2023" sheetId="5" r:id="rId5"/>
+    <sheet name="24ago2023" sheetId="6" r:id="rId6"/>
+    <sheet name="23ago2023" sheetId="7" r:id="rId7"/>
+    <sheet name="22ago2023" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="444">
   <si>
     <t>Código</t>
   </si>
@@ -67,475 +68,592 @@
     <t>108%</t>
   </si>
   <si>
+    <t>151,82</t>
+  </si>
+  <si>
+    <t>CEEBB2</t>
+  </si>
+  <si>
+    <t>24/04/2026</t>
+  </si>
+  <si>
+    <t>110,25%</t>
+  </si>
+  <si>
+    <t>465,4</t>
+  </si>
+  <si>
+    <t>CEPE10</t>
+  </si>
+  <si>
+    <t>COMPANHIA ENERGÉTICA DE PERNAMBUCO - CELPE (*)</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>109,5%</t>
+  </si>
+  <si>
+    <t>144,86</t>
+  </si>
+  <si>
+    <t>CEPE20</t>
+  </si>
+  <si>
+    <t>15/04/2026</t>
+  </si>
+  <si>
+    <t>111%</t>
+  </si>
+  <si>
+    <t>459,57</t>
+  </si>
+  <si>
+    <t>CPGT16</t>
+  </si>
+  <si>
+    <t>COPEL GERAÇÃO E TRANSMISSÃO S/A (*)</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>109%</t>
+  </si>
+  <si>
+    <t>208,3</t>
+  </si>
+  <si>
+    <t>CSMGA4</t>
+  </si>
+  <si>
+    <t>CIA DE SANEAMENTO DE M.GERAIS COPASA MG (*)</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>106,15%</t>
+  </si>
+  <si>
+    <t>98,88</t>
+  </si>
+  <si>
+    <t>CSRN39</t>
+  </si>
+  <si>
+    <t>COMPANHIA ENERGÉTICA DO R. G. N. - COSERN (*)</t>
+  </si>
+  <si>
+    <t>107,25%</t>
+  </si>
+  <si>
+    <t>144,99</t>
+  </si>
+  <si>
+    <t>DASAA0</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICOS DA AMÉRICA S/A (*)</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>107,4%</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>DASAA1</t>
+  </si>
+  <si>
+    <t>10/06/2026</t>
+  </si>
+  <si>
+    <t>108,5%</t>
+  </si>
+  <si>
+    <t>498,84</t>
+  </si>
+  <si>
+    <t>DASAB0</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>110,5%</t>
+  </si>
+  <si>
+    <t>297,88</t>
+  </si>
+  <si>
+    <t>DASAC0</t>
+  </si>
+  <si>
+    <t>10/12/2026</t>
+  </si>
+  <si>
+    <t>112,5%</t>
+  </si>
+  <si>
+    <t>593,66</t>
+  </si>
+  <si>
+    <t>EBENA0</t>
+  </si>
+  <si>
+    <t>EDP SÃO PAULO DISTRIBUIÇÃO DE ENERGIA S.A.(*)</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>106,6%</t>
+  </si>
+  <si>
+    <t>134,99</t>
+  </si>
+  <si>
+    <t>ELPLB3</t>
+  </si>
+  <si>
+    <t>ELETROPAULO METROP. ELETRIC. DE S.P. S/A (*)</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ESCE18</t>
+  </si>
+  <si>
+    <t>EDP ESPIRITO SANTO DISTRIBUICAO DE ENERGIA SA (*)</t>
+  </si>
+  <si>
+    <t>106,9%</t>
+  </si>
+  <si>
+    <t>134,96</t>
+  </si>
+  <si>
+    <t>GGBRB6</t>
+  </si>
+  <si>
+    <t>GERDAU S/A (*)</t>
+  </si>
+  <si>
+    <t>06/05/2026</t>
+  </si>
+  <si>
+    <t>574,31</t>
+  </si>
+  <si>
+    <t>HAPV11</t>
+  </si>
+  <si>
+    <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A (*) (**)</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>205,1</t>
+  </si>
+  <si>
+    <t>HAPV21</t>
+  </si>
+  <si>
+    <t>10/07/2026</t>
+  </si>
+  <si>
+    <t>110,55%</t>
+  </si>
+  <si>
+    <t>520,58</t>
+  </si>
+  <si>
+    <t>IGTA17</t>
+  </si>
+  <si>
+    <t>IGUATEMI EMPRESA DE SHOPPING CENTERS S/A (*)</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>107,5%</t>
+  </si>
+  <si>
+    <t>241,43</t>
+  </si>
+  <si>
+    <t>IGTA37</t>
+  </si>
+  <si>
+    <t>241,15</t>
+  </si>
+  <si>
+    <t>KLBNA2</t>
+  </si>
+  <si>
+    <t>KLABIN S/A</t>
+  </si>
+  <si>
+    <t>19/03/2029</t>
+  </si>
+  <si>
+    <t>114,65%</t>
+  </si>
+  <si>
+    <t>853,41</t>
+  </si>
+  <si>
+    <t>LORTA5</t>
+  </si>
+  <si>
+    <t>LOCALIZA RENT A CAR (*)</t>
+  </si>
+  <si>
+    <t>461,57</t>
+  </si>
+  <si>
+    <t>LORTB3</t>
+  </si>
+  <si>
+    <t>15/02/2025</t>
+  </si>
+  <si>
+    <t>111,3%</t>
+  </si>
+  <si>
+    <t>226,25</t>
+  </si>
+  <si>
+    <t>LORTC4</t>
+  </si>
+  <si>
+    <t>18/01/2024</t>
+  </si>
+  <si>
+    <t>107,9%</t>
+  </si>
+  <si>
+    <t>88,54</t>
+  </si>
+  <si>
+    <t>LORTD4</t>
+  </si>
+  <si>
+    <t>18/09/2026</t>
+  </si>
+  <si>
+    <t>112,32%</t>
+  </si>
+  <si>
+    <t>482,75</t>
+  </si>
+  <si>
+    <t>MRSL29</t>
+  </si>
+  <si>
+    <t>MRS LOGÍSTICA S/A (*) (**)</t>
+  </si>
+  <si>
+    <t>106,4%</t>
+  </si>
+  <si>
+    <t>145,1</t>
+  </si>
+  <si>
+    <t>MULP16</t>
+  </si>
+  <si>
+    <t>MULTIPLAN EMPREENDIMENTOS IMOBILIÁRIOS S/A (*)</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>162,95</t>
+  </si>
+  <si>
+    <t>MULP17</t>
+  </si>
+  <si>
+    <t>25/04/2026</t>
+  </si>
+  <si>
+    <t>106%</t>
+  </si>
+  <si>
+    <t>469,18</t>
+  </si>
+  <si>
+    <t>PETR36</t>
+  </si>
+  <si>
+    <t>PETRÓLEO BRASILEIRO S/A - PETROBRAS (*)</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>106,25%</t>
+  </si>
+  <si>
+    <t>428,27</t>
+  </si>
+  <si>
+    <t>PNVL13</t>
+  </si>
+  <si>
+    <t>DIMED S/A DISTRIBUIDORA DE MEDICAMENTOS (*)</t>
+  </si>
+  <si>
+    <t>105,46</t>
+  </si>
+  <si>
+    <t>RADL14</t>
+  </si>
+  <si>
+    <t>RAIA DROGASIL S/A (*)</t>
+  </si>
+  <si>
+    <t>17/06/2027</t>
+  </si>
+  <si>
+    <t>106,99%</t>
+  </si>
+  <si>
+    <t>693,79</t>
+  </si>
+  <si>
+    <t>SAPR19</t>
+  </si>
+  <si>
+    <t>COMPANHIA DE SANEAMENTO DO PARANA - SANEPAR (*)</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>106,05%</t>
+  </si>
+  <si>
+    <t>184,21</t>
+  </si>
+  <si>
+    <t>SAPR29</t>
+  </si>
+  <si>
+    <t>11/06/2026</t>
+  </si>
+  <si>
+    <t>600,31</t>
+  </si>
+  <si>
+    <t>SULM16</t>
+  </si>
+  <si>
+    <t>SUL AMÉRICA S/A (*)</t>
+  </si>
+  <si>
+    <t>16/04/2024</t>
+  </si>
+  <si>
+    <t>111,5%</t>
+  </si>
+  <si>
+    <t>145,67</t>
+  </si>
+  <si>
+    <t>TAEE16</t>
+  </si>
+  <si>
+    <t>TRANS. ALIANÇA DE ENERGIA ELÉTRICA S/A (*) (**)</t>
+  </si>
+  <si>
+    <t>15/05/2026</t>
+  </si>
+  <si>
+    <t>580,76</t>
+  </si>
+  <si>
+    <t>TFLE15</t>
+  </si>
+  <si>
+    <t>LOCALIZA FLEET S.A. (*)</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>112%</t>
+  </si>
+  <si>
+    <t>428,69</t>
+  </si>
+  <si>
+    <t>TFLE16</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>110,4%</t>
+  </si>
+  <si>
+    <t>113,39</t>
+  </si>
+  <si>
+    <t>UNDAC1</t>
+  </si>
+  <si>
+    <t>UNIDAS S/A (*)</t>
+  </si>
+  <si>
+    <t>10/04/2024</t>
+  </si>
+  <si>
+    <t>141,83</t>
+  </si>
+  <si>
+    <t>UNDAC2</t>
+  </si>
+  <si>
+    <t>10/04/2027</t>
+  </si>
+  <si>
+    <t>545,56</t>
+  </si>
+  <si>
+    <t>UNDAC3</t>
+  </si>
+  <si>
+    <t>10/04/2029</t>
+  </si>
+  <si>
+    <t>940,32</t>
+  </si>
+  <si>
     <t>152,82</t>
   </si>
   <si>
-    <t>CEEBB2</t>
-  </si>
-  <si>
-    <t>24/04/2026</t>
-  </si>
-  <si>
-    <t>110,25%</t>
-  </si>
-  <si>
     <t>466,81</t>
   </si>
   <si>
-    <t>CEPE10</t>
-  </si>
-  <si>
-    <t>COMPANHIA ENERGÉTICA DE PERNAMBUCO - CELPE (*)</t>
-  </si>
-  <si>
-    <t>15/04/2024</t>
-  </si>
-  <si>
-    <t>109,5%</t>
-  </si>
-  <si>
     <t>145,86</t>
   </si>
   <si>
-    <t>CEPE20</t>
-  </si>
-  <si>
-    <t>15/04/2026</t>
-  </si>
-  <si>
-    <t>111%</t>
-  </si>
-  <si>
     <t>460,96</t>
   </si>
   <si>
-    <t>CPGT16</t>
-  </si>
-  <si>
-    <t>COPEL GERAÇÃO E TRANSMISSÃO S/A (*)</t>
-  </si>
-  <si>
-    <t>15/07/2024</t>
-  </si>
-  <si>
-    <t>109%</t>
-  </si>
-  <si>
     <t>209,32</t>
   </si>
   <si>
-    <t>CSMGA4</t>
-  </si>
-  <si>
-    <t>CIA DE SANEAMENTO DE M.GERAIS COPASA MG (*)</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
-  </si>
-  <si>
-    <t>106,15%</t>
-  </si>
-  <si>
     <t>99,87</t>
   </si>
   <si>
-    <t>CSRN39</t>
-  </si>
-  <si>
-    <t>COMPANHIA ENERGÉTICA DO R. G. N. - COSERN (*)</t>
-  </si>
-  <si>
-    <t>107,25%</t>
-  </si>
-  <si>
     <t>145,99</t>
   </si>
   <si>
-    <t>DASAA0</t>
-  </si>
-  <si>
-    <t>DIAGNÓSTICOS DA AMÉRICA S/A (*)</t>
-  </si>
-  <si>
-    <t>10/12/2023</t>
-  </si>
-  <si>
-    <t>107,4%</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
-    <t>DASAA1</t>
-  </si>
-  <si>
-    <t>10/06/2026</t>
-  </si>
-  <si>
-    <t>108,5%</t>
-  </si>
-  <si>
     <t>500,36</t>
   </si>
   <si>
-    <t>DASAB0</t>
-  </si>
-  <si>
-    <t>10/12/2024</t>
-  </si>
-  <si>
-    <t>110,5%</t>
-  </si>
-  <si>
     <t>298,94</t>
   </si>
   <si>
-    <t>DASAC0</t>
-  </si>
-  <si>
-    <t>10/12/2026</t>
-  </si>
-  <si>
-    <t>112,5%</t>
-  </si>
-  <si>
     <t>595,56</t>
   </si>
   <si>
-    <t>EBENA0</t>
-  </si>
-  <si>
-    <t>EDP SÃO PAULO DISTRIBUIÇÃO DE ENERGIA S.A.(*)</t>
-  </si>
-  <si>
-    <t>30/03/2024</t>
-  </si>
-  <si>
-    <t>106,6%</t>
-  </si>
-  <si>
     <t>135,99</t>
   </si>
   <si>
-    <t>ELPLB3</t>
-  </si>
-  <si>
-    <t>ELETROPAULO METROP. ELETRIC. DE S.P. S/A (*)</t>
-  </si>
-  <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>ESCE18</t>
-  </si>
-  <si>
-    <t>EDP ESPIRITO SANTO DISTRIBUICAO DE ENERGIA SA (*)</t>
-  </si>
-  <si>
-    <t>106,9%</t>
-  </si>
-  <si>
     <t>135,96</t>
   </si>
   <si>
-    <t>GGBRB6</t>
-  </si>
-  <si>
-    <t>GERDAU S/A (*)</t>
-  </si>
-  <si>
-    <t>06/05/2026</t>
-  </si>
-  <si>
     <t>575,98</t>
   </si>
   <si>
-    <t>HAPV11</t>
-  </si>
-  <si>
-    <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A (*) (**)</t>
-  </si>
-  <si>
-    <t>10/07/2024</t>
-  </si>
-  <si>
     <t>206,11</t>
   </si>
   <si>
-    <t>HAPV21</t>
-  </si>
-  <si>
-    <t>10/07/2026</t>
-  </si>
-  <si>
-    <t>110,55%</t>
-  </si>
-  <si>
     <t>522,14</t>
   </si>
   <si>
-    <t>IGTA17</t>
-  </si>
-  <si>
-    <t>IGUATEMI EMPRESA DE SHOPPING CENTERS S/A (*)</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>107,5%</t>
-  </si>
-  <si>
     <t>242,45</t>
   </si>
   <si>
-    <t>IGTA37</t>
-  </si>
-  <si>
     <t>242,17</t>
   </si>
   <si>
-    <t>KLBNA2</t>
-  </si>
-  <si>
-    <t>KLABIN S/A</t>
-  </si>
-  <si>
-    <t>19/03/2029</t>
-  </si>
-  <si>
-    <t>114,65%</t>
-  </si>
-  <si>
     <t>857,24</t>
   </si>
   <si>
-    <t>LORTA5</t>
-  </si>
-  <si>
-    <t>LOCALIZA RENT A CAR (*)</t>
-  </si>
-  <si>
     <t>463,23</t>
   </si>
   <si>
-    <t>LORTB3</t>
-  </si>
-  <si>
-    <t>15/02/2025</t>
-  </si>
-  <si>
-    <t>111,3%</t>
-  </si>
-  <si>
     <t>227,31</t>
   </si>
   <si>
-    <t>LORTC4</t>
-  </si>
-  <si>
-    <t>18/01/2024</t>
-  </si>
-  <si>
-    <t>107,9%</t>
-  </si>
-  <si>
     <t>89,54</t>
   </si>
   <si>
-    <t>LORTD4</t>
-  </si>
-  <si>
-    <t>18/09/2026</t>
-  </si>
-  <si>
-    <t>112,32%</t>
-  </si>
-  <si>
     <t>484,37</t>
   </si>
   <si>
-    <t>MRSL29</t>
-  </si>
-  <si>
-    <t>MRS LOGÍSTICA S/A (*) (**)</t>
-  </si>
-  <si>
-    <t>106,4%</t>
-  </si>
-  <si>
     <t>146,1</t>
   </si>
   <si>
-    <t>MULP16</t>
-  </si>
-  <si>
-    <t>MULTIPLAN EMPREENDIMENTOS IMOBILIÁRIOS S/A (*)</t>
-  </si>
-  <si>
-    <t>10/05/2024</t>
-  </si>
-  <si>
     <t>163,95</t>
   </si>
   <si>
-    <t>MULP17</t>
-  </si>
-  <si>
-    <t>25/04/2026</t>
-  </si>
-  <si>
-    <t>106%</t>
-  </si>
-  <si>
     <t>470,59</t>
   </si>
   <si>
-    <t>PETR36</t>
-  </si>
-  <si>
-    <t>PETRÓLEO BRASILEIRO S/A - PETROBRAS (*)</t>
-  </si>
-  <si>
-    <t>15/01/2026</t>
-  </si>
-  <si>
-    <t>106,25%</t>
-  </si>
-  <si>
     <t>429,57</t>
   </si>
   <si>
-    <t>PNVL13</t>
-  </si>
-  <si>
-    <t>DIMED S/A DISTRIBUIDORA DE MEDICAMENTOS (*)</t>
-  </si>
-  <si>
     <t>106,46</t>
   </si>
   <si>
-    <t>RADL14</t>
-  </si>
-  <si>
-    <t>RAIA DROGASIL S/A (*)</t>
-  </si>
-  <si>
-    <t>17/06/2027</t>
-  </si>
-  <si>
-    <t>106,99%</t>
-  </si>
-  <si>
     <t>696,12</t>
   </si>
   <si>
-    <t>SAPR19</t>
-  </si>
-  <si>
-    <t>COMPANHIA DE SANEAMENTO DO PARANA - SANEPAR (*)</t>
-  </si>
-  <si>
-    <t>11/06/2024</t>
-  </si>
-  <si>
-    <t>106,05%</t>
-  </si>
-  <si>
     <t>185,22</t>
   </si>
   <si>
-    <t>SAPR29</t>
-  </si>
-  <si>
-    <t>11/06/2026</t>
-  </si>
-  <si>
     <t>602,11</t>
   </si>
   <si>
-    <t>SULM16</t>
-  </si>
-  <si>
-    <t>SUL AMÉRICA S/A (*)</t>
-  </si>
-  <si>
-    <t>16/04/2024</t>
-  </si>
-  <si>
-    <t>111,5%</t>
-  </si>
-  <si>
     <t>146,67</t>
   </si>
   <si>
-    <t>TAEE16</t>
-  </si>
-  <si>
-    <t>TRANS. ALIANÇA DE ENERGIA ELÉTRICA S/A (*) (**)</t>
-  </si>
-  <si>
-    <t>15/05/2026</t>
-  </si>
-  <si>
     <t>582,44</t>
   </si>
   <si>
-    <t>TFLE15</t>
-  </si>
-  <si>
-    <t>LOCALIZA FLEET S.A. (*)</t>
-  </si>
-  <si>
-    <t>18/07/2025</t>
-  </si>
-  <si>
-    <t>112%</t>
-  </si>
-  <si>
     <t>429,9</t>
   </si>
   <si>
-    <t>TFLE16</t>
-  </si>
-  <si>
-    <t>21/02/2024</t>
-  </si>
-  <si>
-    <t>110,4%</t>
-  </si>
-  <si>
     <t>114,4</t>
   </si>
   <si>
-    <t>UNDAC1</t>
-  </si>
-  <si>
-    <t>UNIDAS S/A (*)</t>
-  </si>
-  <si>
-    <t>10/04/2024</t>
-  </si>
-  <si>
     <t>142,84</t>
   </si>
   <si>
-    <t>UNDAC2</t>
-  </si>
-  <si>
-    <t>10/04/2027</t>
-  </si>
-  <si>
     <t>547,38</t>
-  </si>
-  <si>
-    <t>UNDAC3</t>
-  </si>
-  <si>
-    <t>10/04/2029</t>
   </si>
   <si>
     <t>945,19</t>
@@ -1606,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>105.7716</v>
+        <v>105.6873</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1626,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.8055</v>
+        <v>108.881</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1646,7 +1764,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.2229</v>
+        <v>116.2914</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1666,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>115.4734</v>
+        <v>114.8124</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1686,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.7674</v>
+        <v>116.6952</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1706,7 +1824,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>107.9628</v>
+        <v>107.9846</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1726,7 +1844,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.4668</v>
+        <v>107.258</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -1746,7 +1864,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.9488</v>
+        <v>121.9559</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -1766,7 +1884,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.8055</v>
+        <v>109.7589</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -1786,7 +1904,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>124.1648</v>
+        <v>124.1715</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -1806,7 +1924,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>116.6361</v>
+        <v>116.9023</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -1826,7 +1944,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>125.3792</v>
+        <v>125.2933</v>
       </c>
       <c r="F13" t="s">
         <v>59</v>
@@ -1846,7 +1964,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>108.1733</v>
+        <v>108.0401</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
@@ -1866,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>106.9268</v>
+        <v>107.0138</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
@@ -1886,7 +2004,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>109.1569</v>
+        <v>109.1847</v>
       </c>
       <c r="F16" t="s">
         <v>72</v>
@@ -1906,7 +2024,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.7929</v>
+        <v>111.7071</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -1926,7 +2044,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.2129</v>
+        <v>121.0661</v>
       </c>
       <c r="F18" t="s">
         <v>80</v>
@@ -1946,7 +2064,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>121.8977</v>
+        <v>121.8356</v>
       </c>
       <c r="F19" t="s">
         <v>84</v>
@@ -1966,7 +2084,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.4871</v>
+        <v>108.4706</v>
       </c>
       <c r="F20" t="s">
         <v>89</v>
@@ -1986,7 +2104,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.4935</v>
+        <v>108.4562</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -2006,7 +2124,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.4871</v>
+        <v>114.37</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
@@ -2026,7 +2144,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>112.7663</v>
+        <v>114.8305</v>
       </c>
       <c r="F23" t="s">
         <v>99</v>
@@ -2046,7 +2164,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.8216</v>
+        <v>114.9952</v>
       </c>
       <c r="F24" t="s">
         <v>103</v>
@@ -2066,7 +2184,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>113.1808</v>
+        <v>112.7437</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -2086,7 +2204,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.8034</v>
+        <v>116.7942</v>
       </c>
       <c r="F26" t="s">
         <v>111</v>
@@ -2106,7 +2224,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.3682</v>
+        <v>108.2216</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -2126,7 +2244,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>107.9494</v>
+        <v>107.885</v>
       </c>
       <c r="F28" t="s">
         <v>119</v>
@@ -2146,7 +2264,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>110.6339</v>
+        <v>110.6406</v>
       </c>
       <c r="F29" t="s">
         <v>123</v>
@@ -2166,7 +2284,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.1672</v>
+        <v>109.2331</v>
       </c>
       <c r="F30" t="s">
         <v>128</v>
@@ -2186,7 +2304,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.8608</v>
+        <v>110.9837</v>
       </c>
       <c r="F31" t="s">
         <v>131</v>
@@ -2206,7 +2324,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>111.7462</v>
+        <v>111.8073</v>
       </c>
       <c r="F32" t="s">
         <v>136</v>
@@ -2226,7 +2344,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.5171</v>
+        <v>113.385</v>
       </c>
       <c r="F33" t="s">
         <v>141</v>
@@ -2246,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>114.9337</v>
+        <v>115.11</v>
       </c>
       <c r="F34" t="s">
         <v>144</v>
@@ -2266,7 +2384,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>111.6709</v>
+        <v>111.4331</v>
       </c>
       <c r="F35" t="s">
         <v>149</v>
@@ -2286,7 +2404,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.4943</v>
+        <v>111.3021</v>
       </c>
       <c r="F36" t="s">
         <v>153</v>
@@ -2306,7 +2424,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.2757</v>
+        <v>116.2656</v>
       </c>
       <c r="F37" t="s">
         <v>158</v>
@@ -2326,7 +2444,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.8998</v>
+        <v>114.9261</v>
       </c>
       <c r="F38" t="s">
         <v>162</v>
@@ -2346,7 +2464,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>113.9519</v>
+        <v>113.9822</v>
       </c>
       <c r="F39" t="s">
         <v>166</v>
@@ -2366,7 +2484,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.7609</v>
+        <v>117.708</v>
       </c>
       <c r="F40" t="s">
         <v>169</v>
@@ -2386,7 +2504,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>121.8597</v>
+        <v>121.9425</v>
       </c>
       <c r="F41" t="s">
         <v>172</v>
@@ -2439,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>105.7242</v>
+        <v>105.7716</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -2459,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.7563</v>
+        <v>108.8055</v>
       </c>
       <c r="F3" t="s">
         <v>173</v>
@@ -2479,7 +2597,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.2353</v>
+        <v>116.2229</v>
       </c>
       <c r="F4" t="s">
         <v>174</v>
@@ -2499,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>115.7519</v>
+        <v>115.4734</v>
       </c>
       <c r="F5" t="s">
         <v>175</v>
@@ -2519,7 +2637,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.8607</v>
+        <v>116.7674</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
@@ -2539,7 +2657,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>107.9795</v>
+        <v>107.9628</v>
       </c>
       <c r="F7" t="s">
         <v>177</v>
@@ -2559,7 +2677,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.575</v>
+        <v>107.4668</v>
       </c>
       <c r="F8" t="s">
         <v>178</v>
@@ -2579,7 +2697,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.9345</v>
+        <v>121.9488</v>
       </c>
       <c r="F9" t="s">
         <v>179</v>
@@ -2599,7 +2717,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.7833</v>
+        <v>109.8055</v>
       </c>
       <c r="F10" t="s">
         <v>180</v>
@@ -2619,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>124.0875</v>
+        <v>124.1648</v>
       </c>
       <c r="F11" t="s">
         <v>181</v>
@@ -2639,7 +2757,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>116.8528</v>
+        <v>116.6361</v>
       </c>
       <c r="F12" t="s">
         <v>182</v>
@@ -2659,7 +2777,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>125.449</v>
+        <v>125.3792</v>
       </c>
       <c r="F13" t="s">
         <v>183</v>
@@ -2679,7 +2797,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>108.0489</v>
+        <v>108.1733</v>
       </c>
       <c r="F14" t="s">
         <v>184</v>
@@ -2699,7 +2817,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>107.1641</v>
+        <v>106.9268</v>
       </c>
       <c r="F15" t="s">
         <v>185</v>
@@ -2719,7 +2837,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>108.9807</v>
+        <v>109.1569</v>
       </c>
       <c r="F16" t="s">
         <v>186</v>
@@ -2739,7 +2857,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.6006</v>
+        <v>111.7929</v>
       </c>
       <c r="F17" t="s">
         <v>187</v>
@@ -2759,7 +2877,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.2808</v>
+        <v>121.2129</v>
       </c>
       <c r="F18" t="s">
         <v>188</v>
@@ -2779,7 +2897,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>121.9368</v>
+        <v>121.8977</v>
       </c>
       <c r="F19" t="s">
         <v>189</v>
@@ -2799,7 +2917,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.5477</v>
+        <v>108.4871</v>
       </c>
       <c r="F20" t="s">
         <v>190</v>
@@ -2819,7 +2937,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.6161</v>
+        <v>108.4935</v>
       </c>
       <c r="F21" t="s">
         <v>191</v>
@@ -2839,7 +2957,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.6415</v>
+        <v>114.4871</v>
       </c>
       <c r="F22" t="s">
         <v>192</v>
@@ -2859,7 +2977,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>114.1046</v>
+        <v>112.7663</v>
       </c>
       <c r="F23" t="s">
         <v>193</v>
@@ -2879,7 +2997,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.8718</v>
+        <v>114.8216</v>
       </c>
       <c r="F24" t="s">
         <v>194</v>
@@ -2899,7 +3017,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>114.3147</v>
+        <v>113.1808</v>
       </c>
       <c r="F25" t="s">
         <v>195</v>
@@ -2919,7 +3037,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.996</v>
+        <v>116.8034</v>
       </c>
       <c r="F26" t="s">
         <v>196</v>
@@ -2939,7 +3057,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.4836</v>
+        <v>108.3682</v>
       </c>
       <c r="F27" t="s">
         <v>197</v>
@@ -2959,7 +3077,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>108.1679</v>
+        <v>107.9494</v>
       </c>
       <c r="F28" t="s">
         <v>198</v>
@@ -2979,7 +3097,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>110.8815</v>
+        <v>110.6339</v>
       </c>
       <c r="F29" t="s">
         <v>199</v>
@@ -2999,7 +3117,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.1958</v>
+        <v>109.1672</v>
       </c>
       <c r="F30" t="s">
         <v>200</v>
@@ -3019,7 +3137,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.8971</v>
+        <v>110.8608</v>
       </c>
       <c r="F31" t="s">
         <v>201</v>
@@ -3039,7 +3157,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>112.065</v>
+        <v>111.7462</v>
       </c>
       <c r="F32" t="s">
         <v>202</v>
@@ -3059,7 +3177,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.4106</v>
+        <v>113.5171</v>
       </c>
       <c r="F33" t="s">
         <v>203</v>
@@ -3079,7 +3197,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>114.5833</v>
+        <v>114.9337</v>
       </c>
       <c r="F34" t="s">
         <v>204</v>
@@ -3099,7 +3217,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>111.8073</v>
+        <v>111.6709</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -3119,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.4996</v>
+        <v>111.4943</v>
       </c>
       <c r="F36" t="s">
         <v>206</v>
@@ -3139,7 +3257,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.2289</v>
+        <v>116.2757</v>
       </c>
       <c r="F37" t="s">
         <v>207</v>
@@ -3159,7 +3277,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.6956</v>
+        <v>114.8998</v>
       </c>
       <c r="F38" t="s">
         <v>208</v>
@@ -3179,7 +3297,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>114.3698</v>
+        <v>113.9519</v>
       </c>
       <c r="F39" t="s">
         <v>209</v>
@@ -3199,7 +3317,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.7526</v>
+        <v>117.7609</v>
       </c>
       <c r="F40" t="s">
         <v>210</v>
@@ -3219,7 +3337,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>121.9845</v>
+        <v>121.8597</v>
       </c>
       <c r="F41" t="s">
         <v>211</v>
@@ -3272,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>105.7003</v>
+        <v>105.7242</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -3292,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.7623</v>
+        <v>108.7563</v>
       </c>
       <c r="F3" t="s">
         <v>212</v>
@@ -3312,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.1911</v>
+        <v>116.2353</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -3332,7 +3450,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>115.5652</v>
+        <v>115.7519</v>
       </c>
       <c r="F5" t="s">
         <v>214</v>
@@ -3352,7 +3470,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.5701</v>
+        <v>116.8607</v>
       </c>
       <c r="F6" t="s">
         <v>215</v>
@@ -3372,7 +3490,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>108.0621</v>
+        <v>107.9795</v>
       </c>
       <c r="F7" t="s">
         <v>216</v>
@@ -3392,7 +3510,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.5372</v>
+        <v>107.575</v>
       </c>
       <c r="F8" t="s">
         <v>217</v>
@@ -3412,7 +3530,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.9025</v>
+        <v>121.9345</v>
       </c>
       <c r="F9" t="s">
         <v>218</v>
@@ -3432,7 +3550,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.6376</v>
+        <v>109.7833</v>
       </c>
       <c r="F10" t="s">
         <v>219</v>
@@ -3452,7 +3570,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>123.932</v>
+        <v>124.0875</v>
       </c>
       <c r="F11" t="s">
         <v>220</v>
@@ -3472,7 +3590,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>116.7276</v>
+        <v>116.8528</v>
       </c>
       <c r="F12" t="s">
         <v>221</v>
@@ -3492,7 +3610,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>125.1015</v>
+        <v>125.449</v>
       </c>
       <c r="F13" t="s">
         <v>222</v>
@@ -3512,7 +3630,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>107.6899</v>
+        <v>108.0489</v>
       </c>
       <c r="F14" t="s">
         <v>223</v>
@@ -3532,7 +3650,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>107.1134</v>
+        <v>107.1641</v>
       </c>
       <c r="F15" t="s">
         <v>224</v>
@@ -3552,7 +3670,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>108.5671</v>
+        <v>108.9807</v>
       </c>
       <c r="F16" t="s">
         <v>225</v>
@@ -3572,7 +3690,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.7356</v>
+        <v>111.6006</v>
       </c>
       <c r="F17" t="s">
         <v>226</v>
@@ -3592,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.2195</v>
+        <v>121.2808</v>
       </c>
       <c r="F18" t="s">
         <v>227</v>
@@ -3612,7 +3730,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>121.5416</v>
+        <v>121.9368</v>
       </c>
       <c r="F19" t="s">
         <v>228</v>
@@ -3632,7 +3750,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.4474</v>
+        <v>108.5477</v>
       </c>
       <c r="F20" t="s">
         <v>229</v>
@@ -3652,7 +3770,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.5524</v>
+        <v>108.6161</v>
       </c>
       <c r="F21" t="s">
         <v>230</v>
@@ -3672,7 +3790,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.7531</v>
+        <v>114.6415</v>
       </c>
       <c r="F22" t="s">
         <v>231</v>
@@ -3692,7 +3810,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>113.7044</v>
+        <v>114.1046</v>
       </c>
       <c r="F23" t="s">
         <v>232</v>
@@ -3712,7 +3830,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.9299</v>
+        <v>114.8718</v>
       </c>
       <c r="F24" t="s">
         <v>233</v>
@@ -3732,7 +3850,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>113.0771</v>
+        <v>114.3147</v>
       </c>
       <c r="F25" t="s">
         <v>234</v>
@@ -3752,7 +3870,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.7872</v>
+        <v>116.996</v>
       </c>
       <c r="F26" t="s">
         <v>235</v>
@@ -3772,7 +3890,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.4042</v>
+        <v>108.4836</v>
       </c>
       <c r="F27" t="s">
         <v>236</v>
@@ -3792,7 +3910,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>108.1097</v>
+        <v>108.1679</v>
       </c>
       <c r="F28" t="s">
         <v>237</v>
@@ -3812,7 +3930,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>111.0241</v>
+        <v>110.8815</v>
       </c>
       <c r="F29" t="s">
         <v>238</v>
@@ -3832,7 +3950,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.1604</v>
+        <v>109.1958</v>
       </c>
       <c r="F30" t="s">
         <v>239</v>
@@ -3852,7 +3970,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.901</v>
+        <v>110.8971</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
@@ -3872,7 +3990,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>112.1007</v>
+        <v>112.065</v>
       </c>
       <c r="F32" t="s">
         <v>241</v>
@@ -3892,7 +4010,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.4132</v>
+        <v>113.4106</v>
       </c>
       <c r="F33" t="s">
         <v>242</v>
@@ -3912,7 +4030,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>114.6886</v>
+        <v>114.5833</v>
       </c>
       <c r="F34" t="s">
         <v>243</v>
@@ -3932,7 +4050,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>111.6814</v>
+        <v>111.8073</v>
       </c>
       <c r="F35" t="s">
         <v>244</v>
@@ -3952,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.466</v>
+        <v>111.4996</v>
       </c>
       <c r="F36" t="s">
         <v>245</v>
@@ -3972,7 +4090,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.238</v>
+        <v>116.2289</v>
       </c>
       <c r="F37" t="s">
         <v>246</v>
@@ -3992,7 +4110,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.5556</v>
+        <v>114.6956</v>
       </c>
       <c r="F38" t="s">
         <v>247</v>
@@ -4012,7 +4130,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>114.1275</v>
+        <v>114.3698</v>
       </c>
       <c r="F39" t="s">
         <v>248</v>
@@ -4032,7 +4150,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.8919</v>
+        <v>117.7526</v>
       </c>
       <c r="F40" t="s">
         <v>249</v>
@@ -4052,7 +4170,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>122.0156</v>
+        <v>121.9845</v>
       </c>
       <c r="F41" t="s">
         <v>250</v>
@@ -4105,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>106.1336</v>
+        <v>105.7003</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -4125,7 +4243,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.7785</v>
+        <v>108.7623</v>
       </c>
       <c r="F3" t="s">
         <v>251</v>
@@ -4145,7 +4263,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.2062</v>
+        <v>116.1911</v>
       </c>
       <c r="F4" t="s">
         <v>252</v>
@@ -4165,7 +4283,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>115.1939</v>
+        <v>115.5652</v>
       </c>
       <c r="F5" t="s">
         <v>253</v>
@@ -4185,7 +4303,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.6996</v>
+        <v>116.5701</v>
       </c>
       <c r="F6" t="s">
         <v>254</v>
@@ -4205,7 +4323,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>108.0966</v>
+        <v>108.0621</v>
       </c>
       <c r="F7" t="s">
         <v>255</v>
@@ -4225,7 +4343,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.5586</v>
+        <v>107.5372</v>
       </c>
       <c r="F8" t="s">
         <v>256</v>
@@ -4245,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.867</v>
+        <v>121.9025</v>
       </c>
       <c r="F9" t="s">
         <v>257</v>
@@ -4265,7 +4383,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.5742</v>
+        <v>109.6376</v>
       </c>
       <c r="F10" t="s">
         <v>258</v>
@@ -4285,7 +4403,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>124.4641</v>
+        <v>123.932</v>
       </c>
       <c r="F11" t="s">
         <v>259</v>
@@ -4305,7 +4423,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>116.3894</v>
+        <v>116.7276</v>
       </c>
       <c r="F12" t="s">
         <v>260</v>
@@ -4325,7 +4443,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>125.4441</v>
+        <v>125.1015</v>
       </c>
       <c r="F13" t="s">
         <v>261</v>
@@ -4345,7 +4463,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>107.99</v>
+        <v>107.6899</v>
       </c>
       <c r="F14" t="s">
         <v>262</v>
@@ -4365,7 +4483,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>107.1687</v>
+        <v>107.1134</v>
       </c>
       <c r="F15" t="s">
         <v>263</v>
@@ -4385,7 +4503,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>108.8474</v>
+        <v>108.5671</v>
       </c>
       <c r="F16" t="s">
         <v>264</v>
@@ -4405,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.654</v>
+        <v>111.7356</v>
       </c>
       <c r="F17" t="s">
         <v>265</v>
@@ -4425,7 +4543,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.1967</v>
+        <v>121.2195</v>
       </c>
       <c r="F18" t="s">
         <v>266</v>
@@ -4445,7 +4563,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>121.7612</v>
+        <v>121.5416</v>
       </c>
       <c r="F19" t="s">
         <v>267</v>
@@ -4465,7 +4583,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.6321</v>
+        <v>108.4474</v>
       </c>
       <c r="F20" t="s">
         <v>268</v>
@@ -4485,7 +4603,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.7211</v>
+        <v>108.5524</v>
       </c>
       <c r="F21" t="s">
         <v>269</v>
@@ -4505,7 +4623,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.8268</v>
+        <v>114.7531</v>
       </c>
       <c r="F22" t="s">
         <v>270</v>
@@ -4525,7 +4643,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>112.0503</v>
+        <v>113.7044</v>
       </c>
       <c r="F23" t="s">
         <v>271</v>
@@ -4545,7 +4663,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.5203</v>
+        <v>114.9299</v>
       </c>
       <c r="F24" t="s">
         <v>272</v>
@@ -4565,7 +4683,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>110.2424</v>
+        <v>113.0771</v>
       </c>
       <c r="F25" t="s">
         <v>273</v>
@@ -4585,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.7149</v>
+        <v>116.7872</v>
       </c>
       <c r="F26" t="s">
         <v>274</v>
@@ -4605,7 +4723,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.4752</v>
+        <v>108.4042</v>
       </c>
       <c r="F27" t="s">
         <v>275</v>
@@ -4625,7 +4743,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>108.2625</v>
+        <v>108.1097</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
@@ -4645,7 +4763,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>111.0693</v>
+        <v>111.0241</v>
       </c>
       <c r="F29" t="s">
         <v>277</v>
@@ -4665,7 +4783,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.0453</v>
+        <v>109.1604</v>
       </c>
       <c r="F30" t="s">
         <v>278</v>
@@ -4685,7 +4803,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.9144</v>
+        <v>110.901</v>
       </c>
       <c r="F31" t="s">
         <v>279</v>
@@ -4705,7 +4823,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>112.2954</v>
+        <v>112.1007</v>
       </c>
       <c r="F32" t="s">
         <v>280</v>
@@ -4725,7 +4843,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.4243</v>
+        <v>113.4132</v>
       </c>
       <c r="F33" t="s">
         <v>281</v>
@@ -4745,7 +4863,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>115.0005</v>
+        <v>114.6886</v>
       </c>
       <c r="F34" t="s">
         <v>282</v>
@@ -4765,7 +4883,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>111.9202</v>
+        <v>111.6814</v>
       </c>
       <c r="F35" t="s">
         <v>283</v>
@@ -4785,7 +4903,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.5035</v>
+        <v>111.466</v>
       </c>
       <c r="F36" t="s">
         <v>284</v>
@@ -4805,7 +4923,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.2343</v>
+        <v>116.238</v>
       </c>
       <c r="F37" t="s">
         <v>285</v>
@@ -4825,7 +4943,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.7554</v>
+        <v>114.5556</v>
       </c>
       <c r="F38" t="s">
         <v>286</v>
@@ -4845,7 +4963,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>114.0413</v>
+        <v>114.1275</v>
       </c>
       <c r="F39" t="s">
         <v>287</v>
@@ -4865,7 +4983,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.8287</v>
+        <v>117.8919</v>
       </c>
       <c r="F40" t="s">
         <v>288</v>
@@ -4885,7 +5003,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>121.6088</v>
+        <v>122.0156</v>
       </c>
       <c r="F41" t="s">
         <v>289</v>
@@ -4938,7 +5056,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>106.3506</v>
+        <v>106.1336</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -4958,7 +5076,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.79</v>
+        <v>108.7785</v>
       </c>
       <c r="F3" t="s">
         <v>290</v>
@@ -4978,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.3641</v>
+        <v>116.2062</v>
       </c>
       <c r="F4" t="s">
         <v>291</v>
@@ -4998,7 +5116,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>114.7989</v>
+        <v>115.1939</v>
       </c>
       <c r="F5" t="s">
         <v>292</v>
@@ -5018,7 +5136,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.7232</v>
+        <v>116.6996</v>
       </c>
       <c r="F6" t="s">
         <v>293</v>
@@ -5038,7 +5156,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>108.177</v>
+        <v>108.0966</v>
       </c>
       <c r="F7" t="s">
         <v>294</v>
@@ -5058,7 +5176,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.464</v>
+        <v>107.5586</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
@@ -5078,7 +5196,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.8477</v>
+        <v>121.867</v>
       </c>
       <c r="F9" t="s">
         <v>296</v>
@@ -5098,7 +5216,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.4945</v>
+        <v>109.5742</v>
       </c>
       <c r="F10" t="s">
         <v>297</v>
@@ -5118,7 +5236,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>124.5021</v>
+        <v>124.4641</v>
       </c>
       <c r="F11" t="s">
         <v>298</v>
@@ -5138,7 +5256,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>116.9897</v>
+        <v>116.3894</v>
       </c>
       <c r="F12" t="s">
         <v>299</v>
@@ -5158,7 +5276,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>125.9029</v>
+        <v>125.4441</v>
       </c>
       <c r="F13" t="s">
         <v>300</v>
@@ -5178,7 +5296,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>108.0133</v>
+        <v>107.99</v>
       </c>
       <c r="F14" t="s">
         <v>301</v>
@@ -5218,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>108.9107</v>
+        <v>108.8474</v>
       </c>
       <c r="F16" t="s">
         <v>303</v>
@@ -5238,7 +5356,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.6386</v>
+        <v>111.654</v>
       </c>
       <c r="F17" t="s">
         <v>304</v>
@@ -5258,7 +5376,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.1053</v>
+        <v>121.1967</v>
       </c>
       <c r="F18" t="s">
         <v>305</v>
@@ -5278,7 +5396,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>121.221</v>
+        <v>121.7612</v>
       </c>
       <c r="F19" t="s">
         <v>306</v>
@@ -5298,7 +5416,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.6281</v>
+        <v>108.6321</v>
       </c>
       <c r="F20" t="s">
         <v>307</v>
@@ -5318,7 +5436,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.7526</v>
+        <v>108.7211</v>
       </c>
       <c r="F21" t="s">
         <v>308</v>
@@ -5338,7 +5456,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.8933</v>
+        <v>114.8268</v>
       </c>
       <c r="F22" t="s">
         <v>309</v>
@@ -5358,7 +5476,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>112.3238</v>
+        <v>112.0503</v>
       </c>
       <c r="F23" t="s">
         <v>310</v>
@@ -5378,7 +5496,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.4493</v>
+        <v>114.5203</v>
       </c>
       <c r="F24" t="s">
         <v>311</v>
@@ -5398,7 +5516,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>110.1844</v>
+        <v>110.2424</v>
       </c>
       <c r="F25" t="s">
         <v>312</v>
@@ -5418,7 +5536,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.732</v>
+        <v>116.7149</v>
       </c>
       <c r="F26" t="s">
         <v>313</v>
@@ -5438,7 +5556,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.3655</v>
+        <v>108.4752</v>
       </c>
       <c r="F27" t="s">
         <v>314</v>
@@ -5458,7 +5576,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>108.1562</v>
+        <v>108.2625</v>
       </c>
       <c r="F28" t="s">
         <v>315</v>
@@ -5478,7 +5596,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>111.0148</v>
+        <v>111.0693</v>
       </c>
       <c r="F29" t="s">
         <v>316</v>
@@ -5498,7 +5616,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.1744</v>
+        <v>109.0453</v>
       </c>
       <c r="F30" t="s">
         <v>317</v>
@@ -5518,7 +5636,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.9249</v>
+        <v>110.9144</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
@@ -5538,7 +5656,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>112.3071</v>
+        <v>112.2954</v>
       </c>
       <c r="F32" t="s">
         <v>319</v>
@@ -5558,7 +5676,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.4332</v>
+        <v>113.4243</v>
       </c>
       <c r="F33" t="s">
         <v>320</v>
@@ -5578,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>114.729</v>
+        <v>115.0005</v>
       </c>
       <c r="F34" t="s">
         <v>321</v>
@@ -5598,7 +5716,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>112.127</v>
+        <v>111.9202</v>
       </c>
       <c r="F35" t="s">
         <v>322</v>
@@ -5618,7 +5736,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.5001</v>
+        <v>111.5035</v>
       </c>
       <c r="F36" t="s">
         <v>323</v>
@@ -5638,7 +5756,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.2368</v>
+        <v>116.2343</v>
       </c>
       <c r="F37" t="s">
         <v>324</v>
@@ -5658,7 +5776,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.7549</v>
+        <v>114.7554</v>
       </c>
       <c r="F38" t="s">
         <v>325</v>
@@ -5678,7 +5796,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>113.8497</v>
+        <v>114.0413</v>
       </c>
       <c r="F39" t="s">
         <v>326</v>
@@ -5698,7 +5816,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.9317</v>
+        <v>117.8287</v>
       </c>
       <c r="F40" t="s">
         <v>327</v>
@@ -5718,7 +5836,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>121.6591</v>
+        <v>121.6088</v>
       </c>
       <c r="F41" t="s">
         <v>328</v>
@@ -5771,7 +5889,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>106.4689</v>
+        <v>106.3506</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -5791,7 +5909,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>108.87</v>
+        <v>108.79</v>
       </c>
       <c r="F3" t="s">
         <v>329</v>
@@ -5811,7 +5929,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>116.6022</v>
+        <v>116.3641</v>
       </c>
       <c r="F4" t="s">
         <v>330</v>
@@ -5831,7 +5949,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>113.7608</v>
+        <v>114.7989</v>
       </c>
       <c r="F5" t="s">
         <v>331</v>
@@ -5851,7 +5969,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>116.6882</v>
+        <v>116.7232</v>
       </c>
       <c r="F6" t="s">
         <v>332</v>
@@ -5871,7 +5989,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>108.2182</v>
+        <v>108.177</v>
       </c>
       <c r="F7" t="s">
         <v>333</v>
@@ -5891,7 +6009,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>107.4129</v>
+        <v>107.464</v>
       </c>
       <c r="F8" t="s">
         <v>334</v>
@@ -5911,7 +6029,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>121.6132</v>
+        <v>121.8477</v>
       </c>
       <c r="F9" t="s">
         <v>335</v>
@@ -5931,7 +6049,7 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>109.4721</v>
+        <v>109.4945</v>
       </c>
       <c r="F10" t="s">
         <v>336</v>
@@ -5951,7 +6069,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>124.5918</v>
+        <v>124.5021</v>
       </c>
       <c r="F11" t="s">
         <v>337</v>
@@ -5971,7 +6089,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>119.1808</v>
+        <v>116.9897</v>
       </c>
       <c r="F12" t="s">
         <v>338</v>
@@ -5991,7 +6109,7 @@
         <v>58</v>
       </c>
       <c r="E13">
-        <v>126.0053</v>
+        <v>125.9029</v>
       </c>
       <c r="F13" t="s">
         <v>339</v>
@@ -6011,7 +6129,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>108.2035</v>
+        <v>108.0133</v>
       </c>
       <c r="F14" t="s">
         <v>340</v>
@@ -6031,7 +6149,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>107.1679</v>
+        <v>107.1687</v>
       </c>
       <c r="F15" t="s">
         <v>341</v>
@@ -6051,7 +6169,7 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>108.8326</v>
+        <v>108.9107</v>
       </c>
       <c r="F16" t="s">
         <v>342</v>
@@ -6071,7 +6189,7 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>111.6904</v>
+        <v>111.6386</v>
       </c>
       <c r="F17" t="s">
         <v>343</v>
@@ -6091,7 +6209,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>121.3322</v>
+        <v>121.1053</v>
       </c>
       <c r="F18" t="s">
         <v>344</v>
@@ -6111,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="E19">
-        <v>122.4838</v>
+        <v>121.221</v>
       </c>
       <c r="F19" t="s">
         <v>345</v>
@@ -6131,7 +6249,7 @@
         <v>88</v>
       </c>
       <c r="E20">
-        <v>108.5967</v>
+        <v>108.6281</v>
       </c>
       <c r="F20" t="s">
         <v>346</v>
@@ -6151,7 +6269,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>108.7454</v>
+        <v>108.7526</v>
       </c>
       <c r="F21" t="s">
         <v>347</v>
@@ -6171,7 +6289,7 @@
         <v>95</v>
       </c>
       <c r="E22">
-        <v>114.9545</v>
+        <v>114.8933</v>
       </c>
       <c r="F22" t="s">
         <v>348</v>
@@ -6191,7 +6309,7 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>112.09</v>
+        <v>112.3238</v>
       </c>
       <c r="F23" t="s">
         <v>349</v>
@@ -6211,7 +6329,7 @@
         <v>102</v>
       </c>
       <c r="E24">
-        <v>114.5598</v>
+        <v>114.4493</v>
       </c>
       <c r="F24" t="s">
         <v>350</v>
@@ -6231,7 +6349,7 @@
         <v>106</v>
       </c>
       <c r="E25">
-        <v>110.163</v>
+        <v>110.1844</v>
       </c>
       <c r="F25" t="s">
         <v>351</v>
@@ -6251,7 +6369,7 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>116.7959</v>
+        <v>116.732</v>
       </c>
       <c r="F26" t="s">
         <v>352</v>
@@ -6271,7 +6389,7 @@
         <v>114</v>
       </c>
       <c r="E27">
-        <v>108.4343</v>
+        <v>108.3655</v>
       </c>
       <c r="F27" t="s">
         <v>353</v>
@@ -6291,7 +6409,7 @@
         <v>41</v>
       </c>
       <c r="E28">
-        <v>108.1814</v>
+        <v>108.1562</v>
       </c>
       <c r="F28" t="s">
         <v>354</v>
@@ -6311,7 +6429,7 @@
         <v>122</v>
       </c>
       <c r="E29">
-        <v>110.9638</v>
+        <v>111.0148</v>
       </c>
       <c r="F29" t="s">
         <v>355</v>
@@ -6331,7 +6449,7 @@
         <v>127</v>
       </c>
       <c r="E30">
-        <v>109.0788</v>
+        <v>109.1744</v>
       </c>
       <c r="F30" t="s">
         <v>356</v>
@@ -6351,7 +6469,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>110.9878</v>
+        <v>110.9249</v>
       </c>
       <c r="F31" t="s">
         <v>357</v>
@@ -6371,7 +6489,7 @@
         <v>135</v>
       </c>
       <c r="E32">
-        <v>112.4779</v>
+        <v>112.3071</v>
       </c>
       <c r="F32" t="s">
         <v>358</v>
@@ -6391,7 +6509,7 @@
         <v>140</v>
       </c>
       <c r="E33">
-        <v>113.4842</v>
+        <v>113.4332</v>
       </c>
       <c r="F33" t="s">
         <v>359</v>
@@ -6411,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="E34">
-        <v>115.1228</v>
+        <v>114.729</v>
       </c>
       <c r="F34" t="s">
         <v>360</v>
@@ -6431,7 +6549,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>111.769</v>
+        <v>112.127</v>
       </c>
       <c r="F35" t="s">
         <v>361</v>
@@ -6451,7 +6569,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>111.5127</v>
+        <v>111.5001</v>
       </c>
       <c r="F36" t="s">
         <v>362</v>
@@ -6471,7 +6589,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>116.2997</v>
+        <v>116.2368</v>
       </c>
       <c r="F37" t="s">
         <v>363</v>
@@ -6491,7 +6609,7 @@
         <v>161</v>
       </c>
       <c r="E38">
-        <v>114.765</v>
+        <v>114.7549</v>
       </c>
       <c r="F38" t="s">
         <v>364</v>
@@ -6511,7 +6629,7 @@
         <v>106</v>
       </c>
       <c r="E39">
-        <v>113.9818</v>
+        <v>113.8497</v>
       </c>
       <c r="F39" t="s">
         <v>365</v>
@@ -6531,7 +6649,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>117.8543</v>
+        <v>117.9317</v>
       </c>
       <c r="F40" t="s">
         <v>366</v>
@@ -6551,7 +6669,7 @@
         <v>157</v>
       </c>
       <c r="E41">
-        <v>121.3559</v>
+        <v>121.6591</v>
       </c>
       <c r="F41" t="s">
         <v>367</v>
@@ -6563,6 +6681,839 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>106.4689</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>108.87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>116.6022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>113.7608</v>
+      </c>
+      <c r="F5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>116.6882</v>
+      </c>
+      <c r="F6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>108.2182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>107.4129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>121.6132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>109.4721</v>
+      </c>
+      <c r="F10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>124.5918</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>119.1808</v>
+      </c>
+      <c r="F12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>126.0053</v>
+      </c>
+      <c r="F13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>108.2035</v>
+      </c>
+      <c r="F14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>107.1679</v>
+      </c>
+      <c r="F15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>108.8326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>111.6904</v>
+      </c>
+      <c r="F17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>121.3322</v>
+      </c>
+      <c r="F18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>122.4838</v>
+      </c>
+      <c r="F19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>108.5967</v>
+      </c>
+      <c r="F20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>108.7454</v>
+      </c>
+      <c r="F21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>114.9545</v>
+      </c>
+      <c r="F22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>112.09</v>
+      </c>
+      <c r="F23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24">
+        <v>114.5598</v>
+      </c>
+      <c r="F24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>110.163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26">
+        <v>116.7959</v>
+      </c>
+      <c r="F26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27">
+        <v>108.4343</v>
+      </c>
+      <c r="F27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>108.1814</v>
+      </c>
+      <c r="F28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29">
+        <v>110.9638</v>
+      </c>
+      <c r="F29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>109.0788</v>
+      </c>
+      <c r="F30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>110.9878</v>
+      </c>
+      <c r="F31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32">
+        <v>112.4779</v>
+      </c>
+      <c r="F32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33">
+        <v>113.4842</v>
+      </c>
+      <c r="F33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>115.1228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35">
+        <v>111.769</v>
+      </c>
+      <c r="F35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>111.5127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37">
+        <v>116.2997</v>
+      </c>
+      <c r="F37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38">
+        <v>114.765</v>
+      </c>
+      <c r="F38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39">
+        <v>113.9818</v>
+      </c>
+      <c r="F39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>117.8543</v>
+      </c>
+      <c r="F40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41">
+        <v>121.3559</v>
+      </c>
+      <c r="F41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -6627,7 +7578,7 @@
         <v>108.8941</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6647,7 +7598,7 @@
         <v>116.4238</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6667,7 +7618,7 @@
         <v>113.493</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6687,7 +7638,7 @@
         <v>116.7402</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6727,7 +7678,7 @@
         <v>107.4399</v>
       </c>
       <c r="F8" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6747,7 +7698,7 @@
         <v>121.2142</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6767,7 +7718,7 @@
         <v>109.4798</v>
       </c>
       <c r="F10" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6787,7 +7738,7 @@
         <v>124.7282</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6807,7 +7758,7 @@
         <v>117.19</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6827,7 +7778,7 @@
         <v>125.9895</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6847,7 +7798,7 @@
         <v>108.026</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6867,7 +7818,7 @@
         <v>107.1673</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6887,7 +7838,7 @@
         <v>108.9306</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6907,7 +7858,7 @@
         <v>111.7702</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6927,7 +7878,7 @@
         <v>121.3744</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6947,7 +7898,7 @@
         <v>122.8268</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6967,7 +7918,7 @@
         <v>108.4158</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6987,7 +7938,7 @@
         <v>108.5708</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7007,7 +7958,7 @@
         <v>114.9272</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7027,7 +7978,7 @@
         <v>113.1332</v>
       </c>
       <c r="F23" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7047,7 +7998,7 @@
         <v>114.6913</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7067,7 +8018,7 @@
         <v>110.1311</v>
       </c>
       <c r="F25" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7087,7 +8038,7 @@
         <v>116.7652</v>
       </c>
       <c r="F26" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7107,7 +8058,7 @@
         <v>108.8496</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7127,7 +8078,7 @@
         <v>108.1556</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7147,7 +8098,7 @@
         <v>110.8607</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7167,7 +8118,7 @@
         <v>109.0121</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7187,7 +8138,7 @@
         <v>111.035</v>
       </c>
       <c r="F31" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7207,7 +8158,7 @@
         <v>112.4944</v>
       </c>
       <c r="F32" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7227,7 +8178,7 @@
         <v>113.6222</v>
       </c>
       <c r="F33" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7247,7 +8198,7 @@
         <v>115.1328</v>
       </c>
       <c r="F34" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7267,7 +8218,7 @@
         <v>111.8321</v>
       </c>
       <c r="F35" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7287,7 +8238,7 @@
         <v>111.4858</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7307,7 +8258,7 @@
         <v>116.2668</v>
       </c>
       <c r="F37" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7327,7 +8278,7 @@
         <v>114.628</v>
       </c>
       <c r="F38" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7347,7 +8298,7 @@
         <v>114.4167</v>
       </c>
       <c r="F39" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7367,7 +8318,7 @@
         <v>117.7665</v>
       </c>
       <c r="F40" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
